--- a/Analysis/population_and_period.xlsx
+++ b/Analysis/population_and_period.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MAA2016-15 Supporting the Social Investment Unit\Exemplar project\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NotBackedUp\local R dev\idi_exemplar_project\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1B82A4-C75B-45FA-B613-7F3495B162FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +54,6 @@
     <t>Label_summary_period</t>
   </si>
   <si>
-    <t>[DL-MAA2020-01]</t>
-  </si>
-  <si>
     <t>[snz_uid]</t>
   </si>
   <si>
@@ -78,12 +76,15 @@
   </si>
   <si>
     <t>"2020"</t>
+  </si>
+  <si>
+    <t>[DL-MAA20XX-YY]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,10 +396,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -444,31 +447,31 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -515,7 +518,7 @@
       <c r="E8" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="H2:H29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:H29">
     <sortCondition ref="H2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
